--- a/result/backup-data/back-up1.xlsx
+++ b/result/backup-data/back-up1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,92 +492,251 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>강원춘천시막장FC</t>
+          <t>FC리틀슛</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>창단일자
-20090101
-주소
-강원 춘천시 후만로126번길 31 (후평동, 대우아파트)11동102호
-연락처
-010-5242-0214
-감독
-김우경
+20070301
+주소
+부산 북구 화명대로94번길 45 (화명동, 화명그린힐아파트) 103동105호
+연락처
+010-4701-8300
+감독
+박성용
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CRASSODONFC</t>
+          <t>FC목포</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>창단일자
-20220127
-주소
-서울 관악구 조원로22길 8 (신림동, 성원빌라) 205호
-연락처
-010-3822-2457
-감독
-원락연
+20091224
+주소
+전남 목포시 내화마을길 89 (대양동, 목포국제축구센터)
+연락처
+061-274-0171
+감독
+조덕제
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>강원춘천시막장FC</t>
+          <t>FC서울</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>창단일자
-20090101
-주소
-강원 춘천시 후만로126번길 31 (후평동, 대우아파트)11동102호
-연락처
-010-5242-0214
-감독
-김우경
+19831222
+주소
+서울특별시 마포구 월드컵로 240 (성산동, 월드컵주경기장) 서울월드컵경기장 서측 4층 FC서울 사무실
+연락처
+02-376-3946
+감독
+안익수
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FC서울U18서울오산고</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>창단일자
+20121227
+주소
+서울특별시 마포구 월드컵로 240 (성산동, FC서울) FC서울 운영육성팀
+연락처
+02-376-3044
+감독
+윤현필
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FC안양</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>창단일자
+20130202
+주소
+경기도 안양시 동안구 평촌대로 389 (비산동, 안양종합운동장) 안양종합운동장 내 FC안양 사무국
+연락처
+031-476-3500
+감독
+이우형
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FC증산</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>창단일자
+19970917
+주소
+경남 양산시 물금읍 물금로 9 (물금리) 더 스퀘어 201호
+연락처
+010-4635-5798
+감독
+김효준1
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FC안양</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>창단일자
+20130202
+주소
+경기도 안양시 동안구 평촌대로 389 (비산동, 안양종합운동장) 안양종합운동장 내 FC안양 사무국
+연락처
+031-476-3500
+감독
+이우형
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LS축구아카데미</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>창단일자
+20200805
+주소
+대구 달서구 상화북로 189 (상인동) 신동빌딩4층
+연락처
+010-8608-3439
+감독
+이진표
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CRASSODONFC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>창단일자
-20220127
-주소
-서울 관악구 조원로22길 8 (신림동, 성원빌라) 205호
-연락처
-010-3822-2457
-감독
-원락연
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>강원고성군간성클럽</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>창단일자
+20140302
+주소
+강원 고성군 간성읍 수성로 111 (상리, 종합운동장)
+연락처
+010-2171-6033
+감독
+박득쇠
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>강원고성군거진FC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>창단일자
+20210101
+주소
+강원도 고성군 거진읍 거진운동장길 30 (거진리) 1
+연락처
+010-4677-7077
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>강원고성군고성사랑축구회</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>창단일자
+20180102
+주소
+강원 고성군 토성면 장새미1길 11 (용암리) 용암리
+연락처
+010-2828-4338
+감독
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>

--- a/result/backup-data/back-up1.xlsx
+++ b/result/backup-data/back-up1.xlsx
@@ -634,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC안양</t>
+          <t>FC충주</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>창단일자
-20130202
-주소
-경기도 안양시 동안구 평촌대로 389 (비산동, 안양종합운동장) 안양종합운동장 내 FC안양 사무국
-연락처
-031-476-3500
-감독
-이우형
+20180101
+주소
+충북 충주시 대림로 85 (호암동, 충주종합운동장) 3번게이트내 FC충주
+연락처
+043-848-7755
+감독
+김종필
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
@@ -657,19 +657,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LS축구아카데미</t>
+          <t>FC증산</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>창단일자
-20200805
-주소
-대구 달서구 상화북로 189 (상인동) 신동빌딩4층
-연락처
-010-8608-3439
-감독
-이진표
+19970917
+주소
+경남 양산시 물금읍 물금로 9 (물금리) 더 스퀘어 201호
+연락처
+010-4635-5798
+감독
+김효준1
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>

--- a/result/backup-data/back-up1.xlsx
+++ b/result/backup-data/back-up1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,19 +680,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>강원고성군간성클럽</t>
+          <t>강원고성군거진FC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>창단일자
-20140302
-주소
-강원 고성군 간성읍 수성로 111 (상리, 종합운동장)
-연락처
-010-2171-6033
-감독
-박득쇠
+20210101
+주소
+강원도 고성군 거진읍 거진운동장길 30 (거진리) 1
+연락처
+010-4677-7077
+감독
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
@@ -703,17 +702,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>강원고성군거진FC</t>
+          <t>강원고성군고성사랑축구회</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>창단일자
-20210101
-주소
-강원도 고성군 거진읍 거진운동장길 30 (거진리) 1
-연락처
-010-4677-7077
+20180102
+주소
+강원 고성군 토성면 장새미1길 11 (용암리) 용암리
+연락처
+010-2828-4338
 감독
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
@@ -725,18 +724,702 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>강원고성군고성사랑축구회</t>
+          <t>강원고성군달홀FC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>창단일자
-20180102
-주소
-강원 고성군 토성면 장새미1길 11 (용암리) 용암리
-연락처
-010-2828-4338
-감독
+20110101
+주소
+강원 고성군 간성읍 간성로 64 정일빌딩 3층
+연락처
+010-7708-4342
+감독
+최서희
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>강원고성군죽왕축구회</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>창단일자
+20050101
+주소
+강원도 고성군 간성읍 탑동길 12 (신안리, 고성경찰서) 금강파출소
+연락처
+010-9300-5682
+감독
+강완식
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>강원고성군토요축구회</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>창단일자
+1974
+주소
+강원 고성군 거진읍 화포2길 26 (화포리)
+연락처
+010-8727-2188
+감독
+고경태
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>강원동해시초록생활축구회</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>창단일자
+19780120
+주소
+강원 동해시 중앙로 143 (천곡동, 행복드림아파트) 105동 803호
+연락처
+010-5574-0690
+감독
+심영철
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>강원동해시해일생활축구회</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>창단일자
+19990101
+주소
+강원도 동해시 효자남길 26-1 (동회동, 동보상가) 꿀꿀이뱃살
+연락처
+010-9728-0717
+감독
+배기표
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>강원삼척시FC이글스</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>창단일자
+20000101
+주소
+강원도 삼척시 동해대로 4234 (교동, 삼척종합운동장) 삼척시축구협회
+연락처
+010-6375-1414
+감독
+지중근
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>강원삼척시가람FC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>창단일자
+20200501
+주소
+강원 삼척시 중앙로4길 14-34 가온누리스포츠
+연락처
+010-7188-0104
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>강원삼척시라온FC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>창단일자
+20200129
+주소
+강원 삼척시 동해대로 4234 (교동, 삼척종합운동장)
+연락처
+010-6876-7720
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>강원삼척시미리내FC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>창단일자
+20230102
+주소
+강원 삼척시 도계읍 장원길 63 (도계리, 경동아파트) 12동 307호
+연락처
+010-4614-1984
+감독
+김동진
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>강원삼척시삼척동자FC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>창단일자
+20220711
+주소
+강원 삼척시 중앙시장1길 22-23 (남양동, 세연상가아파트) 708호
+연락처
+010-9528-2260
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>강원삼척시미리내FC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>창단일자
+20230102
+주소
+강원 삼척시 도계읍 장원길 63 (도계리, 경동아파트) 12동 307호
+연락처
+010-4614-1984
+감독
+김동진
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>강원삼척시원더플FC</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>창단일자
+20161002
+주소
+강원 삼척시 동해대로 4234 (교동, 삼척종합운동장) 삼척시축구협회
+연락처
+010-2758-1516
+감독
+이광철
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>강원속초시일오축구회</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>창단일자
+19810813
+주소
+강원도 속초시 번영로129번길 25 (동명동) (동명동)
+연락처
+010-4370-6085
+감독
+김명수
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>강원속초시청해FC축구회</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>창단일자
+20180701
+주소
+강원 속초시 중앙로 96 (청학동) 로데오센터빌딩 4층
+연락처
+010-2803-1271
+감독
+박일균
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>강원속초시클래스</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>창단일자
+20160101
+주소
+강원 속초시 청대마을길 37 (조양동) 청대리막국수
+연락처
+010-3699-5210
+감독
+장유민
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>강원속초시한솔축구회</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>창단일자
+2001
+주소
+강원 속초시 청대마을길 16-1 (조양동)신태용 축구교실 속초센터
+연락처
+010-5389-9489
+감독
+이서호
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>강원속초시해마축구회</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>창단일자
+19990301
+주소
+강원도 속초시 청대로204번길 40 (조양동, 부영아파트5단지) 501동~508동 505동111호
+연락처
+010-3115-4285
+감독
+김병일
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>강원속초시현대축구회</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>창단일자
+19890101
+주소
+강원도 속초시 소평로 68 (조양동) 257-4
+연락처
+010-5362-7747
+감독
+김성백
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>강원양구군BAEKDUUTD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>창단일자
+20211118
+주소
+강원 양구군 동면 금강산로 1801 (임당리, 대암아파트) e동 402호
+연락처
+010-2004-7995
+감독
+강민재
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>강원속초시현대축구회</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>창단일자
+19890101
+주소
+강원도 속초시 소평로 68 (조양동) 257-4
+연락처
+010-5362-7747
+감독
+김성백
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>강원영월군동강FC60대</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>창단일자
+20000301
+주소
+강원도 영월군 영월읍 제방안길 100 (하송리, 영월스포츠파크) 영월군체육회
+연락처
+010-5214-2290
+감독
+방극원1
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>강원영월군영월FC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>창단일자
+19980101
+주소
+강원도 영월군 영월읍 제방안길 100 (하송리, 영월스포츠파크) 국민체육센터2층 영월군체육회
+연락처
+010-8854-8832
+감독
+김택형
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>강원영월군장수FC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>창단일자
+19820101
+주소
+강원 영월군 영월읍 제방안길 100 (하송리, 영월스포츠파크) 국민체육센터2층
+연락처
+010-7486-2102
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>강원영월군주천축구클럽</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>창단일자
+19940302
+주소
+강원 영월군 주천면 송학주천로 1433 (주천리) 청목건설
+연락처
+010-9494-2112
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>강원영월군해오름클럽</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>창단일자
+2000
+주소
+강원 영월군 영월읍 봉래산로 90-21 (영흥리, 대한아트빌) 301호
+연락처
+010-5377-3634
+감독
+김정호
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>강원원주시FC브로스</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>창단일자
+20230418
+주소
+강원 원주시 호저로 127 (우산동)
+연락처
+010-9961-9212
+감독
+고민준
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>강원원주시GPFC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>창단일자
+20230131
+주소
+강원 원주시 능라동길 59 정한프라자 406호
+연락처
+010-7137-4865
+감독
+한승훈
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>강원원주시FC원주</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>창단일자
+20170101
+주소
+강원도 원주시 솔우물2길 47 (무실동) 무실동 체육공원사무소
+연락처
+010-4142-2328
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>강원원주시GPFC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>창단일자
+20230131
+주소
+강원 원주시 능라동길 59 정한프라자 406호
+연락처
+010-7137-4865
+감독
+한승훈
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>강원원주시아미고FC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>창단일자
+20220429
+주소
+강원 원주시 남원로527번길 35 101동 404호
+연락처
+010-2998-0301
+감독
+이준우</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>강원원주시우리FC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>창단일자
+20170101
+주소
+강원도 원주시 평원로 107 (학성동) 이규복
+연락처
+010-5373-8859
+감독
+한정현
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
